--- a/temp_doc/DATA SISWA FIX.xlsx
+++ b/temp_doc/DATA SISWA FIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DEB97B-DDCF-C742-981F-F322D0728761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215EC95F-2F18-E140-9885-334C7D525F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1077">
   <si>
     <t>nama_siswa</t>
   </si>
@@ -3236,24 +3236,6 @@
     <t>xiiakl22324</t>
   </si>
   <si>
-    <t>xiibdp2324</t>
-  </si>
-  <si>
-    <t>xiiotkp12324</t>
-  </si>
-  <si>
-    <t>xiiotkp22324</t>
-  </si>
-  <si>
-    <t>xiitkj12324</t>
-  </si>
-  <si>
-    <t>xiitkj22324</t>
-  </si>
-  <si>
-    <t>xiitkj32324</t>
-  </si>
-  <si>
     <t>xiakl12425</t>
   </si>
   <si>
@@ -3264,6 +3246,30 @@
   </si>
   <si>
     <t>xiiakl22425</t>
+  </si>
+  <si>
+    <t>xiipm2324</t>
+  </si>
+  <si>
+    <t>xiimplb12324</t>
+  </si>
+  <si>
+    <t>xiimplb22324</t>
+  </si>
+  <si>
+    <t>xiitjkt12324</t>
+  </si>
+  <si>
+    <t>xiitjkt22324</t>
+  </si>
+  <si>
+    <t>xiitjkt32324</t>
+  </si>
+  <si>
+    <t>xidkv2425</t>
+  </si>
+  <si>
+    <t>xiidkv2425</t>
   </si>
 </sst>
 </file>
@@ -3644,15 +3650,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}">
-  <dimension ref="A1:F1210"/>
+  <dimension ref="A1:F1300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1021" workbookViewId="0">
-      <selection activeCell="A1039" sqref="A1039:F1210"/>
+    <sheetView tabSelected="1" topLeftCell="A1278" workbookViewId="0">
+      <selection activeCell="C1291" sqref="C1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
@@ -20469,7 +20475,7 @@
         <v>777</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E841" s="1" t="s">
         <v>1043</v>
@@ -20489,7 +20495,7 @@
         <v>778</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E842" s="1" t="s">
         <v>1043</v>
@@ -20509,7 +20515,7 @@
         <v>779</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E843" s="1" t="s">
         <v>1043</v>
@@ -20529,7 +20535,7 @@
         <v>780</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E844" s="1" t="s">
         <v>1043</v>
@@ -20549,7 +20555,7 @@
         <v>1024</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E845" s="1" t="s">
         <v>1043</v>
@@ -20569,7 +20575,7 @@
         <v>781</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E846" s="1" t="s">
         <v>1043</v>
@@ -20589,7 +20595,7 @@
         <v>782</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E847" s="1" t="s">
         <v>1043</v>
@@ -20609,7 +20615,7 @@
         <v>783</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E848" s="1" t="s">
         <v>1043</v>
@@ -20629,7 +20635,7 @@
         <v>784</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E849" s="1" t="s">
         <v>1043</v>
@@ -20649,7 +20655,7 @@
         <v>785</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E850" s="1" t="s">
         <v>1043</v>
@@ -20669,7 +20675,7 @@
         <v>786</v>
       </c>
       <c r="D851" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E851" s="1" t="s">
         <v>1043</v>
@@ -20689,7 +20695,7 @@
         <v>787</v>
       </c>
       <c r="D852" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E852" s="1" t="s">
         <v>1043</v>
@@ -20709,7 +20715,7 @@
         <v>788</v>
       </c>
       <c r="D853" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E853" s="1" t="s">
         <v>1043</v>
@@ -20729,7 +20735,7 @@
         <v>789</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E854" s="1" t="s">
         <v>1043</v>
@@ -20749,7 +20755,7 @@
         <v>790</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E855" s="1" t="s">
         <v>1043</v>
@@ -20769,7 +20775,7 @@
         <v>791</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E856" s="1" t="s">
         <v>1043</v>
@@ -20789,7 +20795,7 @@
         <v>792</v>
       </c>
       <c r="D857" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E857" s="1" t="s">
         <v>1043</v>
@@ -20809,7 +20815,7 @@
         <v>793</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E858" s="1" t="s">
         <v>1043</v>
@@ -20829,7 +20835,7 @@
         <v>794</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E859" s="1" t="s">
         <v>1043</v>
@@ -20849,7 +20855,7 @@
         <v>795</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>1043</v>
@@ -20869,7 +20875,7 @@
         <v>1025</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E861" s="1" t="s">
         <v>1043</v>
@@ -20889,7 +20895,7 @@
         <v>1026</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E862" s="1" t="s">
         <v>1043</v>
@@ -20909,7 +20915,7 @@
         <v>796</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E863" s="1" t="s">
         <v>1043</v>
@@ -20929,7 +20935,7 @@
         <v>797</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E864" s="1" t="s">
         <v>1043</v>
@@ -20949,7 +20955,7 @@
         <v>798</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E865" s="1" t="s">
         <v>1043</v>
@@ -20969,7 +20975,7 @@
         <v>799</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E866" s="1" t="s">
         <v>1043</v>
@@ -20989,7 +20995,7 @@
         <v>800</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E867" s="1" t="s">
         <v>1043</v>
@@ -21009,7 +21015,7 @@
         <v>801</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E868" s="1" t="s">
         <v>1043</v>
@@ -21029,7 +21035,7 @@
         <v>802</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E869" s="1" t="s">
         <v>1043</v>
@@ -21049,7 +21055,7 @@
         <v>803</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E870" s="1" t="s">
         <v>1043</v>
@@ -21069,7 +21075,7 @@
         <v>804</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E871" s="1" t="s">
         <v>1043</v>
@@ -21089,7 +21095,7 @@
         <v>805</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E872" s="1" t="s">
         <v>1043</v>
@@ -21109,7 +21115,7 @@
         <v>806</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E873" s="1" t="s">
         <v>1043</v>
@@ -21129,7 +21135,7 @@
         <v>807</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E874" s="1" t="s">
         <v>1043</v>
@@ -21149,7 +21155,7 @@
         <v>808</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E875" s="1" t="s">
         <v>1043</v>
@@ -21169,7 +21175,7 @@
         <v>809</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E876" s="1" t="s">
         <v>1043</v>
@@ -21189,7 +21195,7 @@
         <v>810</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E877" s="1" t="s">
         <v>1043</v>
@@ -21209,7 +21215,7 @@
         <v>811</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E878" s="1" t="s">
         <v>1043</v>
@@ -21229,7 +21235,7 @@
         <v>812</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E879" s="1" t="s">
         <v>1043</v>
@@ -21249,7 +21255,7 @@
         <v>813</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E880" s="1" t="s">
         <v>1041</v>
@@ -21269,7 +21275,7 @@
         <v>814</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E881" s="1" t="s">
         <v>1041</v>
@@ -21289,7 +21295,7 @@
         <v>815</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E882" s="1" t="s">
         <v>1041</v>
@@ -21309,7 +21315,7 @@
         <v>1027</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E883" s="1" t="s">
         <v>1041</v>
@@ -21329,7 +21335,7 @@
         <v>816</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E884" s="1" t="s">
         <v>1041</v>
@@ -21349,7 +21355,7 @@
         <v>817</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E885" s="1" t="s">
         <v>1041</v>
@@ -21369,7 +21375,7 @@
         <v>818</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E886" s="1" t="s">
         <v>1041</v>
@@ -21389,7 +21395,7 @@
         <v>819</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E887" s="1" t="s">
         <v>1041</v>
@@ -21409,7 +21415,7 @@
         <v>820</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E888" s="1" t="s">
         <v>1041</v>
@@ -21429,7 +21435,7 @@
         <v>821</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E889" s="1" t="s">
         <v>1041</v>
@@ -21449,7 +21455,7 @@
         <v>822</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E890" s="1" t="s">
         <v>1041</v>
@@ -21469,7 +21475,7 @@
         <v>823</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E891" s="1" t="s">
         <v>1041</v>
@@ -21489,7 +21495,7 @@
         <v>824</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E892" s="1" t="s">
         <v>1041</v>
@@ -21509,7 +21515,7 @@
         <v>825</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E893" s="1" t="s">
         <v>1041</v>
@@ -21529,7 +21535,7 @@
         <v>1028</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E894" s="1" t="s">
         <v>1041</v>
@@ -21549,7 +21555,7 @@
         <v>826</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E895" s="1" t="s">
         <v>1041</v>
@@ -21569,7 +21575,7 @@
         <v>827</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E896" s="1" t="s">
         <v>1041</v>
@@ -21589,7 +21595,7 @@
         <v>828</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E897" s="1" t="s">
         <v>1041</v>
@@ -21609,7 +21615,7 @@
         <v>829</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E898" s="1" t="s">
         <v>1041</v>
@@ -21629,7 +21635,7 @@
         <v>830</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E899" s="1" t="s">
         <v>1041</v>
@@ -21649,7 +21655,7 @@
         <v>1029</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E900" s="1" t="s">
         <v>1041</v>
@@ -21669,7 +21675,7 @@
         <v>831</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>1041</v>
@@ -21689,7 +21695,7 @@
         <v>832</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E902" s="1" t="s">
         <v>1041</v>
@@ -21709,7 +21715,7 @@
         <v>833</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E903" s="1" t="s">
         <v>1041</v>
@@ -21729,7 +21735,7 @@
         <v>834</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E904" s="1" t="s">
         <v>1041</v>
@@ -21749,7 +21755,7 @@
         <v>835</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E905" s="1" t="s">
         <v>1041</v>
@@ -21769,7 +21775,7 @@
         <v>836</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E906" s="1" t="s">
         <v>1041</v>
@@ -21789,7 +21795,7 @@
         <v>837</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E907" s="1" t="s">
         <v>1041</v>
@@ -21809,7 +21815,7 @@
         <v>838</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E908" s="1" t="s">
         <v>1041</v>
@@ -21829,7 +21835,7 @@
         <v>839</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="E909" s="1" t="s">
         <v>1041</v>
@@ -21849,7 +21855,7 @@
         <v>840</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E910" s="1" t="s">
         <v>1041</v>
@@ -21869,7 +21875,7 @@
         <v>841</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E911" s="1" t="s">
         <v>1041</v>
@@ -21889,7 +21895,7 @@
         <v>842</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E912" s="1" t="s">
         <v>1041</v>
@@ -21909,7 +21915,7 @@
         <v>843</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E913" s="1" t="s">
         <v>1041</v>
@@ -21929,7 +21935,7 @@
         <v>844</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E914" s="1" t="s">
         <v>1041</v>
@@ -21949,7 +21955,7 @@
         <v>845</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E915" s="1" t="s">
         <v>1041</v>
@@ -21969,7 +21975,7 @@
         <v>846</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E916" s="1" t="s">
         <v>1041</v>
@@ -21989,7 +21995,7 @@
         <v>847</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E917" s="1" t="s">
         <v>1041</v>
@@ -22009,7 +22015,7 @@
         <v>848</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E918" s="1" t="s">
         <v>1041</v>
@@ -22029,7 +22035,7 @@
         <v>849</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E919" s="1" t="s">
         <v>1041</v>
@@ -22049,7 +22055,7 @@
         <v>850</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E920" s="1" t="s">
         <v>1041</v>
@@ -22069,7 +22075,7 @@
         <v>851</v>
       </c>
       <c r="D921" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E921" s="1" t="s">
         <v>1041</v>
@@ -22089,7 +22095,7 @@
         <v>852</v>
       </c>
       <c r="D922" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E922" s="1" t="s">
         <v>1041</v>
@@ -22109,7 +22115,7 @@
         <v>853</v>
       </c>
       <c r="D923" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E923" s="1" t="s">
         <v>1041</v>
@@ -22129,7 +22135,7 @@
         <v>854</v>
       </c>
       <c r="D924" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E924" s="1" t="s">
         <v>1041</v>
@@ -22149,7 +22155,7 @@
         <v>855</v>
       </c>
       <c r="D925" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E925" s="1" t="s">
         <v>1041</v>
@@ -22169,7 +22175,7 @@
         <v>856</v>
       </c>
       <c r="D926" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E926" s="1" t="s">
         <v>1041</v>
@@ -22189,7 +22195,7 @@
         <v>857</v>
       </c>
       <c r="D927" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E927" s="1" t="s">
         <v>1041</v>
@@ -22209,7 +22215,7 @@
         <v>858</v>
       </c>
       <c r="D928" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E928" s="1" t="s">
         <v>1041</v>
@@ -22229,7 +22235,7 @@
         <v>859</v>
       </c>
       <c r="D929" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E929" s="1" t="s">
         <v>1041</v>
@@ -22249,7 +22255,7 @@
         <v>860</v>
       </c>
       <c r="D930" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E930" s="1" t="s">
         <v>1041</v>
@@ -22269,7 +22275,7 @@
         <v>861</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E931" s="1" t="s">
         <v>1041</v>
@@ -22289,7 +22295,7 @@
         <v>862</v>
       </c>
       <c r="D932" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E932" s="1" t="s">
         <v>1041</v>
@@ -22309,7 +22315,7 @@
         <v>863</v>
       </c>
       <c r="D933" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E933" s="1" t="s">
         <v>1041</v>
@@ -22329,7 +22335,7 @@
         <v>864</v>
       </c>
       <c r="D934" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E934" s="1" t="s">
         <v>1041</v>
@@ -22349,7 +22355,7 @@
         <v>865</v>
       </c>
       <c r="D935" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E935" s="1" t="s">
         <v>1041</v>
@@ -22369,7 +22375,7 @@
         <v>866</v>
       </c>
       <c r="D936" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E936" s="1" t="s">
         <v>1041</v>
@@ -22389,7 +22395,7 @@
         <v>867</v>
       </c>
       <c r="D937" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E937" s="1" t="s">
         <v>1041</v>
@@ -22409,7 +22415,7 @@
         <v>868</v>
       </c>
       <c r="D938" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E938" s="1" t="s">
         <v>1041</v>
@@ -22429,7 +22435,7 @@
         <v>1030</v>
       </c>
       <c r="D939" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E939" s="1" t="s">
         <v>1041</v>
@@ -22449,7 +22455,7 @@
         <v>869</v>
       </c>
       <c r="D940" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E940" s="1" t="s">
         <v>1041</v>
@@ -22469,7 +22475,7 @@
         <v>870</v>
       </c>
       <c r="D941" s="2" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E941" s="1" t="s">
         <v>1041</v>
@@ -22489,7 +22495,7 @@
         <v>871</v>
       </c>
       <c r="D942" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E942" s="1" t="s">
         <v>1044</v>
@@ -22509,7 +22515,7 @@
         <v>1031</v>
       </c>
       <c r="D943" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E943" s="1" t="s">
         <v>1044</v>
@@ -22529,7 +22535,7 @@
         <v>872</v>
       </c>
       <c r="D944" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E944" s="1" t="s">
         <v>1044</v>
@@ -22549,7 +22555,7 @@
         <v>873</v>
       </c>
       <c r="D945" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E945" s="1" t="s">
         <v>1044</v>
@@ -22569,7 +22575,7 @@
         <v>874</v>
       </c>
       <c r="D946" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E946" s="1" t="s">
         <v>1044</v>
@@ -22589,7 +22595,7 @@
         <v>875</v>
       </c>
       <c r="D947" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E947" s="1" t="s">
         <v>1044</v>
@@ -22609,7 +22615,7 @@
         <v>876</v>
       </c>
       <c r="D948" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E948" s="1" t="s">
         <v>1044</v>
@@ -22629,7 +22635,7 @@
         <v>877</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E949" s="1" t="s">
         <v>1044</v>
@@ -22649,7 +22655,7 @@
         <v>878</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E950" s="1" t="s">
         <v>1044</v>
@@ -22669,7 +22675,7 @@
         <v>879</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E951" s="1" t="s">
         <v>1044</v>
@@ -22689,7 +22695,7 @@
         <v>880</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E952" s="1" t="s">
         <v>1044</v>
@@ -22709,7 +22715,7 @@
         <v>881</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E953" s="1" t="s">
         <v>1044</v>
@@ -22729,7 +22735,7 @@
         <v>882</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E954" s="1" t="s">
         <v>1044</v>
@@ -22749,7 +22755,7 @@
         <v>883</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E955" s="1" t="s">
         <v>1044</v>
@@ -22769,7 +22775,7 @@
         <v>884</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E956" s="1" t="s">
         <v>1044</v>
@@ -22789,7 +22795,7 @@
         <v>885</v>
       </c>
       <c r="D957" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E957" s="1" t="s">
         <v>1044</v>
@@ -22809,7 +22815,7 @@
         <v>886</v>
       </c>
       <c r="D958" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E958" s="1" t="s">
         <v>1044</v>
@@ -22829,7 +22835,7 @@
         <v>887</v>
       </c>
       <c r="D959" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>1044</v>
@@ -22849,7 +22855,7 @@
         <v>888</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>1044</v>
@@ -22869,7 +22875,7 @@
         <v>889</v>
       </c>
       <c r="D961" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E961" s="1" t="s">
         <v>1044</v>
@@ -22889,7 +22895,7 @@
         <v>1032</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E962" s="1" t="s">
         <v>1044</v>
@@ -22909,7 +22915,7 @@
         <v>890</v>
       </c>
       <c r="D963" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E963" s="1" t="s">
         <v>1044</v>
@@ -22929,7 +22935,7 @@
         <v>891</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E964" s="1" t="s">
         <v>1044</v>
@@ -22949,7 +22955,7 @@
         <v>892</v>
       </c>
       <c r="D965" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E965" s="1" t="s">
         <v>1044</v>
@@ -22969,7 +22975,7 @@
         <v>893</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E966" s="1" t="s">
         <v>1044</v>
@@ -22989,7 +22995,7 @@
         <v>894</v>
       </c>
       <c r="D967" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E967" s="1" t="s">
         <v>1044</v>
@@ -23009,7 +23015,7 @@
         <v>895</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E968" s="1" t="s">
         <v>1044</v>
@@ -23029,7 +23035,7 @@
         <v>896</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E969" s="1" t="s">
         <v>1044</v>
@@ -23049,7 +23055,7 @@
         <v>897</v>
       </c>
       <c r="D970" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>1044</v>
@@ -23069,7 +23075,7 @@
         <v>898</v>
       </c>
       <c r="D971" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E971" s="1" t="s">
         <v>1044</v>
@@ -23089,7 +23095,7 @@
         <v>899</v>
       </c>
       <c r="D972" s="2" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="E972" s="1" t="s">
         <v>1044</v>
@@ -23109,7 +23115,7 @@
         <v>900</v>
       </c>
       <c r="D973" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E973" s="1" t="s">
         <v>1044</v>
@@ -23129,7 +23135,7 @@
         <v>1033</v>
       </c>
       <c r="D974" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E974" s="1" t="s">
         <v>1044</v>
@@ -23149,7 +23155,7 @@
         <v>1034</v>
       </c>
       <c r="D975" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E975" s="1" t="s">
         <v>1044</v>
@@ -23169,7 +23175,7 @@
         <v>901</v>
       </c>
       <c r="D976" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E976" s="1" t="s">
         <v>1044</v>
@@ -23189,7 +23195,7 @@
         <v>902</v>
       </c>
       <c r="D977" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E977" s="1" t="s">
         <v>1044</v>
@@ -23209,7 +23215,7 @@
         <v>224</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E978" s="1" t="s">
         <v>1044</v>
@@ -23229,7 +23235,7 @@
         <v>903</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E979" s="1" t="s">
         <v>1044</v>
@@ -23249,7 +23255,7 @@
         <v>904</v>
       </c>
       <c r="D980" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E980" s="1" t="s">
         <v>1044</v>
@@ -23269,7 +23275,7 @@
         <v>905</v>
       </c>
       <c r="D981" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E981" s="1" t="s">
         <v>1044</v>
@@ -23289,7 +23295,7 @@
         <v>906</v>
       </c>
       <c r="D982" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E982" s="1" t="s">
         <v>1044</v>
@@ -23309,7 +23315,7 @@
         <v>907</v>
       </c>
       <c r="D983" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E983" s="1" t="s">
         <v>1044</v>
@@ -23329,7 +23335,7 @@
         <v>908</v>
       </c>
       <c r="D984" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E984" s="1" t="s">
         <v>1044</v>
@@ -23349,7 +23355,7 @@
         <v>909</v>
       </c>
       <c r="D985" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E985" s="1" t="s">
         <v>1044</v>
@@ -23369,7 +23375,7 @@
         <v>910</v>
       </c>
       <c r="D986" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E986" s="1" t="s">
         <v>1044</v>
@@ -23389,7 +23395,7 @@
         <v>1035</v>
       </c>
       <c r="D987" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E987" s="1" t="s">
         <v>1044</v>
@@ -23409,7 +23415,7 @@
         <v>911</v>
       </c>
       <c r="D988" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E988" s="1" t="s">
         <v>1044</v>
@@ -23429,7 +23435,7 @@
         <v>912</v>
       </c>
       <c r="D989" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E989" s="1" t="s">
         <v>1044</v>
@@ -23449,7 +23455,7 @@
         <v>913</v>
       </c>
       <c r="D990" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E990" s="1" t="s">
         <v>1044</v>
@@ -23469,7 +23475,7 @@
         <v>914</v>
       </c>
       <c r="D991" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E991" s="1" t="s">
         <v>1044</v>
@@ -23489,7 +23495,7 @@
         <v>915</v>
       </c>
       <c r="D992" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E992" s="1" t="s">
         <v>1044</v>
@@ -23509,7 +23515,7 @@
         <v>916</v>
       </c>
       <c r="D993" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E993" s="1" t="s">
         <v>1044</v>
@@ -23529,7 +23535,7 @@
         <v>917</v>
       </c>
       <c r="D994" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E994" s="1" t="s">
         <v>1044</v>
@@ -23549,7 +23555,7 @@
         <v>918</v>
       </c>
       <c r="D995" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E995" s="1" t="s">
         <v>1044</v>
@@ -23569,7 +23575,7 @@
         <v>919</v>
       </c>
       <c r="D996" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E996" s="1" t="s">
         <v>1044</v>
@@ -23589,7 +23595,7 @@
         <v>920</v>
       </c>
       <c r="D997" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E997" s="1" t="s">
         <v>1044</v>
@@ -23609,7 +23615,7 @@
         <v>921</v>
       </c>
       <c r="D998" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E998" s="1" t="s">
         <v>1044</v>
@@ -23629,7 +23635,7 @@
         <v>922</v>
       </c>
       <c r="D999" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E999" s="1" t="s">
         <v>1044</v>
@@ -23649,7 +23655,7 @@
         <v>923</v>
       </c>
       <c r="D1000" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1000" s="1" t="s">
         <v>1044</v>
@@ -23669,7 +23675,7 @@
         <v>924</v>
       </c>
       <c r="D1001" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1001" s="1" t="s">
         <v>1044</v>
@@ -23689,7 +23695,7 @@
         <v>925</v>
       </c>
       <c r="D1002" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1002" s="1" t="s">
         <v>1044</v>
@@ -23709,7 +23715,7 @@
         <v>926</v>
       </c>
       <c r="D1003" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1003" s="1" t="s">
         <v>1044</v>
@@ -23729,7 +23735,7 @@
         <v>1036</v>
       </c>
       <c r="D1004" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1004" s="1" t="s">
         <v>1044</v>
@@ -23749,7 +23755,7 @@
         <v>927</v>
       </c>
       <c r="D1005" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1005" s="1" t="s">
         <v>1044</v>
@@ -23769,7 +23775,7 @@
         <v>928</v>
       </c>
       <c r="D1006" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>1044</v>
@@ -23789,7 +23795,7 @@
         <v>929</v>
       </c>
       <c r="D1007" s="2" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="E1007" s="1" t="s">
         <v>1044</v>
@@ -23809,7 +23815,7 @@
         <v>930</v>
       </c>
       <c r="D1008" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1008" s="1" t="s">
         <v>1044</v>
@@ -23829,7 +23835,7 @@
         <v>931</v>
       </c>
       <c r="D1009" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1009" s="1" t="s">
         <v>1044</v>
@@ -23849,7 +23855,7 @@
         <v>1037</v>
       </c>
       <c r="D1010" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1010" s="1" t="s">
         <v>1044</v>
@@ -23869,7 +23875,7 @@
         <v>932</v>
       </c>
       <c r="D1011" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1011" s="1" t="s">
         <v>1044</v>
@@ -23889,7 +23895,7 @@
         <v>933</v>
       </c>
       <c r="D1012" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1012" s="1" t="s">
         <v>1044</v>
@@ -23909,7 +23915,7 @@
         <v>934</v>
       </c>
       <c r="D1013" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1013" s="1" t="s">
         <v>1044</v>
@@ -23929,7 +23935,7 @@
         <v>935</v>
       </c>
       <c r="D1014" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1014" s="1" t="s">
         <v>1044</v>
@@ -23949,7 +23955,7 @@
         <v>1038</v>
       </c>
       <c r="D1015" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1015" s="1" t="s">
         <v>1044</v>
@@ -23969,7 +23975,7 @@
         <v>936</v>
       </c>
       <c r="D1016" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1016" s="1" t="s">
         <v>1044</v>
@@ -23989,7 +23995,7 @@
         <v>937</v>
       </c>
       <c r="D1017" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1017" s="1" t="s">
         <v>1044</v>
@@ -24009,7 +24015,7 @@
         <v>938</v>
       </c>
       <c r="D1018" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1018" s="1" t="s">
         <v>1044</v>
@@ -24029,7 +24035,7 @@
         <v>939</v>
       </c>
       <c r="D1019" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1019" s="1" t="s">
         <v>1044</v>
@@ -24049,7 +24055,7 @@
         <v>940</v>
       </c>
       <c r="D1020" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1020" s="1" t="s">
         <v>1044</v>
@@ -24069,7 +24075,7 @@
         <v>941</v>
       </c>
       <c r="D1021" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1021" s="1" t="s">
         <v>1044</v>
@@ -24089,7 +24095,7 @@
         <v>942</v>
       </c>
       <c r="D1022" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1022" s="1" t="s">
         <v>1044</v>
@@ -24109,7 +24115,7 @@
         <v>943</v>
       </c>
       <c r="D1023" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1023" s="1" t="s">
         <v>1044</v>
@@ -24129,7 +24135,7 @@
         <v>944</v>
       </c>
       <c r="D1024" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1024" s="1" t="s">
         <v>1044</v>
@@ -24149,7 +24155,7 @@
         <v>945</v>
       </c>
       <c r="D1025" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1025" s="1" t="s">
         <v>1044</v>
@@ -24169,7 +24175,7 @@
         <v>946</v>
       </c>
       <c r="D1026" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1026" s="1" t="s">
         <v>1044</v>
@@ -24189,7 +24195,7 @@
         <v>1039</v>
       </c>
       <c r="D1027" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1027" s="1" t="s">
         <v>1044</v>
@@ -24209,7 +24215,7 @@
         <v>947</v>
       </c>
       <c r="D1028" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1028" s="1" t="s">
         <v>1044</v>
@@ -24229,7 +24235,7 @@
         <v>948</v>
       </c>
       <c r="D1029" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1029" s="1" t="s">
         <v>1044</v>
@@ -24249,7 +24255,7 @@
         <v>949</v>
       </c>
       <c r="D1030" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1030" s="1" t="s">
         <v>1044</v>
@@ -24269,7 +24275,7 @@
         <v>950</v>
       </c>
       <c r="D1031" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1031" s="1" t="s">
         <v>1044</v>
@@ -24289,7 +24295,7 @@
         <v>951</v>
       </c>
       <c r="D1032" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1032" s="1" t="s">
         <v>1044</v>
@@ -24309,7 +24315,7 @@
         <v>952</v>
       </c>
       <c r="D1033" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1033" s="1" t="s">
         <v>1044</v>
@@ -24329,7 +24335,7 @@
         <v>953</v>
       </c>
       <c r="D1034" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1034" s="1" t="s">
         <v>1044</v>
@@ -24349,7 +24355,7 @@
         <v>954</v>
       </c>
       <c r="D1035" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1035" s="1" t="s">
         <v>1044</v>
@@ -24369,7 +24375,7 @@
         <v>955</v>
       </c>
       <c r="D1036" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1036" s="1" t="s">
         <v>1044</v>
@@ -24389,7 +24395,7 @@
         <v>1040</v>
       </c>
       <c r="D1037" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1037" s="1" t="s">
         <v>1044</v>
@@ -24409,7 +24415,7 @@
         <v>956</v>
       </c>
       <c r="D1038" s="2" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E1038" s="1" t="s">
         <v>1044</v>
@@ -24429,7 +24435,7 @@
         <v>6</v>
       </c>
       <c r="D1039" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1039" s="1" t="s">
         <v>3</v>
@@ -24449,7 +24455,7 @@
         <v>7</v>
       </c>
       <c r="D1040" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1040" s="1" t="s">
         <v>3</v>
@@ -24469,7 +24475,7 @@
         <v>8</v>
       </c>
       <c r="D1041" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1041" s="1" t="s">
         <v>3</v>
@@ -24489,7 +24495,7 @@
         <v>9</v>
       </c>
       <c r="D1042" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1042" s="1" t="s">
         <v>3</v>
@@ -24509,7 +24515,7 @@
         <v>10</v>
       </c>
       <c r="D1043" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1043" s="1" t="s">
         <v>3</v>
@@ -24529,7 +24535,7 @@
         <v>11</v>
       </c>
       <c r="D1044" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1044" s="1" t="s">
         <v>3</v>
@@ -24549,7 +24555,7 @@
         <v>12</v>
       </c>
       <c r="D1045" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1045" s="1" t="s">
         <v>3</v>
@@ -24569,7 +24575,7 @@
         <v>13</v>
       </c>
       <c r="D1046" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1046" s="1" t="s">
         <v>3</v>
@@ -24589,7 +24595,7 @@
         <v>14</v>
       </c>
       <c r="D1047" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1047" s="1" t="s">
         <v>3</v>
@@ -24609,7 +24615,7 @@
         <v>15</v>
       </c>
       <c r="D1048" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1048" s="1" t="s">
         <v>3</v>
@@ -24629,7 +24635,7 @@
         <v>16</v>
       </c>
       <c r="D1049" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1049" s="1" t="s">
         <v>3</v>
@@ -24649,7 +24655,7 @@
         <v>17</v>
       </c>
       <c r="D1050" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1050" s="1" t="s">
         <v>3</v>
@@ -24669,7 +24675,7 @@
         <v>18</v>
       </c>
       <c r="D1051" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1051" s="1" t="s">
         <v>3</v>
@@ -24689,7 +24695,7 @@
         <v>19</v>
       </c>
       <c r="D1052" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1052" s="1" t="s">
         <v>3</v>
@@ -24709,7 +24715,7 @@
         <v>20</v>
       </c>
       <c r="D1053" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1053" s="1" t="s">
         <v>3</v>
@@ -24729,7 +24735,7 @@
         <v>21</v>
       </c>
       <c r="D1054" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1054" s="1" t="s">
         <v>3</v>
@@ -24749,7 +24755,7 @@
         <v>22</v>
       </c>
       <c r="D1055" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1055" s="1" t="s">
         <v>3</v>
@@ -24769,7 +24775,7 @@
         <v>23</v>
       </c>
       <c r="D1056" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1056" s="1" t="s">
         <v>3</v>
@@ -24789,7 +24795,7 @@
         <v>24</v>
       </c>
       <c r="D1057" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1057" s="1" t="s">
         <v>3</v>
@@ -24809,7 +24815,7 @@
         <v>25</v>
       </c>
       <c r="D1058" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1058" s="1" t="s">
         <v>3</v>
@@ -24829,7 +24835,7 @@
         <v>26</v>
       </c>
       <c r="D1059" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1059" s="1" t="s">
         <v>3</v>
@@ -24849,7 +24855,7 @@
         <v>27</v>
       </c>
       <c r="D1060" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1060" s="1" t="s">
         <v>3</v>
@@ -24869,7 +24875,7 @@
         <v>28</v>
       </c>
       <c r="D1061" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1061" s="1" t="s">
         <v>3</v>
@@ -24889,7 +24895,7 @@
         <v>29</v>
       </c>
       <c r="D1062" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1062" s="1" t="s">
         <v>3</v>
@@ -24909,7 +24915,7 @@
         <v>30</v>
       </c>
       <c r="D1063" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1063" s="1" t="s">
         <v>3</v>
@@ -24929,7 +24935,7 @@
         <v>31</v>
       </c>
       <c r="D1064" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1064" s="1" t="s">
         <v>3</v>
@@ -24949,7 +24955,7 @@
         <v>32</v>
       </c>
       <c r="D1065" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1065" s="1" t="s">
         <v>3</v>
@@ -24969,7 +24975,7 @@
         <v>33</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1066" s="1" t="s">
         <v>3</v>
@@ -24989,7 +24995,7 @@
         <v>34</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1067" s="1" t="s">
         <v>3</v>
@@ -25009,7 +25015,7 @@
         <v>35</v>
       </c>
       <c r="D1068" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1068" s="1" t="s">
         <v>3</v>
@@ -25029,7 +25035,7 @@
         <v>36</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1069" s="1" t="s">
         <v>3</v>
@@ -25049,7 +25055,7 @@
         <v>37</v>
       </c>
       <c r="D1070" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1070" s="1" t="s">
         <v>3</v>
@@ -25069,7 +25075,7 @@
         <v>38</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1071" s="1" t="s">
         <v>3</v>
@@ -25089,7 +25095,7 @@
         <v>39</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1072" s="1" t="s">
         <v>3</v>
@@ -25109,7 +25115,7 @@
         <v>40</v>
       </c>
       <c r="D1073" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1073" s="1" t="s">
         <v>3</v>
@@ -25129,7 +25135,7 @@
         <v>41</v>
       </c>
       <c r="D1074" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1074" s="1" t="s">
         <v>3</v>
@@ -25149,7 +25155,7 @@
         <v>42</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1075" s="1" t="s">
         <v>3</v>
@@ -25169,7 +25175,7 @@
         <v>43</v>
       </c>
       <c r="D1076" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1076" s="1" t="s">
         <v>3</v>
@@ -25189,7 +25195,7 @@
         <v>44</v>
       </c>
       <c r="D1077" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1077" s="1" t="s">
         <v>3</v>
@@ -25209,7 +25215,7 @@
         <v>45</v>
       </c>
       <c r="D1078" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1078" s="1" t="s">
         <v>3</v>
@@ -25229,7 +25235,7 @@
         <v>46</v>
       </c>
       <c r="D1079" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1079" s="1" t="s">
         <v>3</v>
@@ -25249,7 +25255,7 @@
         <v>47</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1080" s="1" t="s">
         <v>3</v>
@@ -25269,7 +25275,7 @@
         <v>48</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1081" s="1" t="s">
         <v>3</v>
@@ -25289,7 +25295,7 @@
         <v>49</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E1082" s="1" t="s">
         <v>3</v>
@@ -25309,7 +25315,7 @@
         <v>50</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1083" s="1" t="s">
         <v>3</v>
@@ -25329,7 +25335,7 @@
         <v>51</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1084" s="1" t="s">
         <v>3</v>
@@ -25349,7 +25355,7 @@
         <v>52</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1085" s="1" t="s">
         <v>3</v>
@@ -25369,7 +25375,7 @@
         <v>53</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1086" s="1" t="s">
         <v>3</v>
@@ -25389,7 +25395,7 @@
         <v>54</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1087" s="1" t="s">
         <v>3</v>
@@ -25409,7 +25415,7 @@
         <v>55</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1088" s="1" t="s">
         <v>3</v>
@@ -25429,7 +25435,7 @@
         <v>56</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1089" s="1" t="s">
         <v>3</v>
@@ -25449,7 +25455,7 @@
         <v>57</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1090" s="1" t="s">
         <v>3</v>
@@ -25469,7 +25475,7 @@
         <v>58</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1091" s="1" t="s">
         <v>3</v>
@@ -25489,7 +25495,7 @@
         <v>59</v>
       </c>
       <c r="D1092" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1092" s="1" t="s">
         <v>3</v>
@@ -25509,7 +25515,7 @@
         <v>60</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1093" s="1" t="s">
         <v>3</v>
@@ -25529,7 +25535,7 @@
         <v>61</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1094" s="1" t="s">
         <v>3</v>
@@ -25549,7 +25555,7 @@
         <v>62</v>
       </c>
       <c r="D1095" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1095" s="1" t="s">
         <v>3</v>
@@ -25569,7 +25575,7 @@
         <v>63</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1096" s="1" t="s">
         <v>3</v>
@@ -25589,7 +25595,7 @@
         <v>64</v>
       </c>
       <c r="D1097" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>3</v>
@@ -25609,7 +25615,7 @@
         <v>65</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1098" s="1" t="s">
         <v>3</v>
@@ -25629,7 +25635,7 @@
         <v>66</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1099" s="1" t="s">
         <v>3</v>
@@ -25649,7 +25655,7 @@
         <v>67</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1100" s="1" t="s">
         <v>3</v>
@@ -25669,7 +25675,7 @@
         <v>68</v>
       </c>
       <c r="D1101" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1101" s="1" t="s">
         <v>3</v>
@@ -25689,7 +25695,7 @@
         <v>69</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1102" s="1" t="s">
         <v>3</v>
@@ -25709,7 +25715,7 @@
         <v>70</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1103" s="1" t="s">
         <v>3</v>
@@ -25729,7 +25735,7 @@
         <v>71</v>
       </c>
       <c r="D1104" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1104" s="1" t="s">
         <v>3</v>
@@ -25749,7 +25755,7 @@
         <v>72</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1105" s="1" t="s">
         <v>3</v>
@@ -25769,7 +25775,7 @@
         <v>73</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1106" s="1" t="s">
         <v>3</v>
@@ -25789,7 +25795,7 @@
         <v>74</v>
       </c>
       <c r="D1107" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1107" s="1" t="s">
         <v>3</v>
@@ -25809,7 +25815,7 @@
         <v>75</v>
       </c>
       <c r="D1108" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1108" s="1" t="s">
         <v>3</v>
@@ -25829,7 +25835,7 @@
         <v>76</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1109" s="1" t="s">
         <v>3</v>
@@ -25849,7 +25855,7 @@
         <v>77</v>
       </c>
       <c r="D1110" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1110" s="1" t="s">
         <v>3</v>
@@ -25869,7 +25875,7 @@
         <v>78</v>
       </c>
       <c r="D1111" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1111" s="1" t="s">
         <v>3</v>
@@ -25889,7 +25895,7 @@
         <v>79</v>
       </c>
       <c r="D1112" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1112" s="1" t="s">
         <v>3</v>
@@ -25909,7 +25915,7 @@
         <v>80</v>
       </c>
       <c r="D1113" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1113" s="1" t="s">
         <v>3</v>
@@ -25929,7 +25935,7 @@
         <v>81</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1114" s="1" t="s">
         <v>3</v>
@@ -25949,7 +25955,7 @@
         <v>82</v>
       </c>
       <c r="D1115" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1115" s="1" t="s">
         <v>3</v>
@@ -25969,7 +25975,7 @@
         <v>83</v>
       </c>
       <c r="D1116" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1116" s="1" t="s">
         <v>3</v>
@@ -25989,7 +25995,7 @@
         <v>84</v>
       </c>
       <c r="D1117" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1117" s="1" t="s">
         <v>3</v>
@@ -26009,7 +26015,7 @@
         <v>85</v>
       </c>
       <c r="D1118" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1118" s="1" t="s">
         <v>3</v>
@@ -26029,7 +26035,7 @@
         <v>86</v>
       </c>
       <c r="D1119" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1119" s="1" t="s">
         <v>3</v>
@@ -26049,7 +26055,7 @@
         <v>87</v>
       </c>
       <c r="D1120" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1120" s="1" t="s">
         <v>3</v>
@@ -26069,7 +26075,7 @@
         <v>88</v>
       </c>
       <c r="D1121" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1121" s="1" t="s">
         <v>3</v>
@@ -26089,7 +26095,7 @@
         <v>89</v>
       </c>
       <c r="D1122" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1122" s="1" t="s">
         <v>3</v>
@@ -26109,7 +26115,7 @@
         <v>90</v>
       </c>
       <c r="D1123" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1123" s="1" t="s">
         <v>3</v>
@@ -26129,7 +26135,7 @@
         <v>91</v>
       </c>
       <c r="D1124" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1124" s="1" t="s">
         <v>3</v>
@@ -26149,7 +26155,7 @@
         <v>92</v>
       </c>
       <c r="D1125" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1125" s="1" t="s">
         <v>3</v>
@@ -26169,7 +26175,7 @@
         <v>93</v>
       </c>
       <c r="D1126" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1126" s="1" t="s">
         <v>3</v>
@@ -26189,7 +26195,7 @@
         <v>94</v>
       </c>
       <c r="D1127" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1127" s="1" t="s">
         <v>3</v>
@@ -26209,7 +26215,7 @@
         <v>95</v>
       </c>
       <c r="D1128" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E1128" s="1" t="s">
         <v>3</v>
@@ -26220,19 +26226,19 @@
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1129" s="1">
-        <v>24472425</v>
+        <v>21282425</v>
       </c>
       <c r="B1129" s="1">
-        <v>228375</v>
+        <v>239007</v>
       </c>
       <c r="C1129" s="1" t="s">
-        <v>393</v>
+        <v>97</v>
       </c>
       <c r="D1129" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1129" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1129" s="1">
         <v>2425</v>
@@ -26240,19 +26246,19 @@
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1130" s="1">
-        <v>24482425</v>
+        <v>21292425</v>
       </c>
       <c r="B1130" s="1">
-        <v>228380</v>
+        <v>239008</v>
       </c>
       <c r="C1130" s="1" t="s">
-        <v>979</v>
+        <v>98</v>
       </c>
       <c r="D1130" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1130" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1130" s="1">
         <v>2425</v>
@@ -26260,19 +26266,19 @@
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1131" s="1">
-        <v>24492425</v>
+        <v>21302425</v>
       </c>
       <c r="B1131" s="1">
-        <v>228381</v>
+        <v>239009</v>
       </c>
       <c r="C1131" s="1" t="s">
-        <v>394</v>
+        <v>957</v>
       </c>
       <c r="D1131" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1131" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1131" s="1">
         <v>2425</v>
@@ -26280,19 +26286,19 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1132" s="1">
-        <v>24502425</v>
+        <v>21312425</v>
       </c>
       <c r="B1132" s="1">
-        <v>228384</v>
+        <v>239010</v>
       </c>
       <c r="C1132" s="1" t="s">
-        <v>395</v>
+        <v>99</v>
       </c>
       <c r="D1132" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1132" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1132" s="1">
         <v>2425</v>
@@ -26300,19 +26306,19 @@
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1133" s="1">
-        <v>24512425</v>
+        <v>21322425</v>
       </c>
       <c r="B1133" s="1">
-        <v>228386</v>
+        <v>239011</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>396</v>
+        <v>100</v>
       </c>
       <c r="D1133" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1133" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1133" s="1">
         <v>2425</v>
@@ -26320,19 +26326,19 @@
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1134" s="1">
-        <v>24522425</v>
+        <v>21332425</v>
       </c>
       <c r="B1134" s="1">
-        <v>228387</v>
+        <v>239012</v>
       </c>
       <c r="C1134" s="1" t="s">
-        <v>980</v>
+        <v>958</v>
       </c>
       <c r="D1134" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1134" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1134" s="1">
         <v>2425</v>
@@ -26340,19 +26346,19 @@
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1135" s="1">
-        <v>24532425</v>
+        <v>21342425</v>
       </c>
       <c r="B1135" s="1">
-        <v>228388</v>
+        <v>239013</v>
       </c>
       <c r="C1135" s="1" t="s">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="D1135" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1135" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1135" s="1">
         <v>2425</v>
@@ -26360,19 +26366,19 @@
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1136" s="1">
-        <v>24542425</v>
+        <v>21352425</v>
       </c>
       <c r="B1136" s="1">
-        <v>228389</v>
+        <v>239014</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="D1136" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1136" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1136" s="1">
         <v>2425</v>
@@ -26380,19 +26386,19 @@
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1137" s="1">
-        <v>24552425</v>
+        <v>21362425</v>
       </c>
       <c r="B1137" s="1">
-        <v>228392</v>
+        <v>239015</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="D1137" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1137" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1137" s="1">
         <v>2425</v>
@@ -26400,19 +26406,19 @@
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1138" s="1">
-        <v>24562425</v>
+        <v>21372425</v>
       </c>
       <c r="B1138" s="1">
-        <v>228393</v>
+        <v>239016</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>400</v>
+        <v>959</v>
       </c>
       <c r="D1138" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1138" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1138" s="1">
         <v>2425</v>
@@ -26420,19 +26426,19 @@
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1139" s="1">
-        <v>24572425</v>
+        <v>21382425</v>
       </c>
       <c r="B1139" s="1">
-        <v>228395</v>
+        <v>239017</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="D1139" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1139" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1139" s="1">
         <v>2425</v>
@@ -26440,19 +26446,19 @@
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1140" s="1">
-        <v>24582425</v>
+        <v>21392425</v>
       </c>
       <c r="B1140" s="1">
-        <v>228397</v>
+        <v>239018</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>402</v>
+        <v>960</v>
       </c>
       <c r="D1140" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1140" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1140" s="1">
         <v>2425</v>
@@ -26460,19 +26466,19 @@
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
-        <v>24592425</v>
+        <v>21402425</v>
       </c>
       <c r="B1141" s="1">
-        <v>228402</v>
+        <v>239019</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="D1141" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1141" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1141" s="1">
         <v>2425</v>
@@ -26480,19 +26486,19 @@
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1142" s="1">
-        <v>24602425</v>
+        <v>21412425</v>
       </c>
       <c r="B1142" s="1">
-        <v>228403</v>
+        <v>209020</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>981</v>
+        <v>106</v>
       </c>
       <c r="D1142" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1142" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1142" s="1">
         <v>2425</v>
@@ -26500,19 +26506,19 @@
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
-        <v>24612425</v>
+        <v>21422425</v>
       </c>
       <c r="B1143" s="1">
-        <v>228406</v>
+        <v>239021</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>404</v>
+        <v>107</v>
       </c>
       <c r="D1143" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1143" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1143" s="1">
         <v>2425</v>
@@ -26520,19 +26526,19 @@
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1144" s="1">
-        <v>24622425</v>
+        <v>21432425</v>
       </c>
       <c r="B1144" s="1">
-        <v>228407</v>
+        <v>239022</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>982</v>
+        <v>108</v>
       </c>
       <c r="D1144" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1144" s="1">
         <v>2425</v>
@@ -26540,19 +26546,19 @@
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1145" s="1">
-        <v>24632425</v>
+        <v>21442425</v>
       </c>
       <c r="B1145" s="1">
-        <v>228410</v>
+        <v>239023</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>405</v>
+        <v>109</v>
       </c>
       <c r="D1145" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1145" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1145" s="1">
         <v>2425</v>
@@ -26560,19 +26566,19 @@
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1146" s="1">
-        <v>24642425</v>
+        <v>21452425</v>
       </c>
       <c r="B1146" s="1">
-        <v>228411</v>
+        <v>239025</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>406</v>
+        <v>110</v>
       </c>
       <c r="D1146" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1146" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1146" s="1">
         <v>2425</v>
@@ -26580,19 +26586,19 @@
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
-        <v>24652425</v>
+        <v>21462425</v>
       </c>
       <c r="B1147" s="1">
-        <v>228412</v>
+        <v>239024</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
       <c r="D1147" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1147" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1147" s="1">
         <v>2425</v>
@@ -26600,19 +26606,19 @@
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1148" s="1">
-        <v>24662425</v>
+        <v>21472425</v>
       </c>
       <c r="B1148" s="1">
-        <v>228413</v>
+        <v>238699</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>983</v>
+        <v>112</v>
       </c>
       <c r="D1148" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1148" s="1">
         <v>2425</v>
@@ -26620,19 +26626,19 @@
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1149" s="1">
-        <v>24672425</v>
+        <v>21482425</v>
       </c>
       <c r="B1149" s="1">
-        <v>228415</v>
+        <v>239026</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>408</v>
+        <v>113</v>
       </c>
       <c r="D1149" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1149" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1149" s="1">
         <v>2425</v>
@@ -26640,19 +26646,19 @@
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
-        <v>24682425</v>
+        <v>21492425</v>
       </c>
       <c r="B1150" s="1">
-        <v>228417</v>
+        <v>239027</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="D1150" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1150" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1150" s="1">
         <v>2425</v>
@@ -26660,19 +26666,19 @@
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1151" s="1">
-        <v>24692425</v>
+        <v>21502425</v>
       </c>
       <c r="B1151" s="1">
-        <v>228420</v>
+        <v>239029</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>410</v>
+        <v>115</v>
       </c>
       <c r="D1151" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1151" s="1">
         <v>2425</v>
@@ -26680,19 +26686,19 @@
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1152" s="1">
-        <v>24702425</v>
+        <v>21512425</v>
       </c>
       <c r="B1152" s="1">
-        <v>228422</v>
+        <v>239030</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
       <c r="D1152" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1152" s="1">
         <v>2425</v>
@@ -26700,19 +26706,19 @@
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1153" s="1">
-        <v>24712425</v>
+        <v>21522425</v>
       </c>
       <c r="B1153" s="1">
-        <v>228423</v>
+        <v>239031</v>
       </c>
       <c r="C1153" s="1" t="s">
-        <v>412</v>
+        <v>117</v>
       </c>
       <c r="D1153" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1153" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1153" s="1">
         <v>2425</v>
@@ -26720,19 +26726,19 @@
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1154" s="1">
-        <v>24722425</v>
+        <v>21532425</v>
       </c>
       <c r="B1154" s="1">
-        <v>228424</v>
+        <v>239033</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>413</v>
+        <v>118</v>
       </c>
       <c r="D1154" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1154" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1154" s="1">
         <v>2425</v>
@@ -26740,19 +26746,19 @@
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1155" s="1">
-        <v>24732425</v>
+        <v>21542425</v>
       </c>
       <c r="B1155" s="1">
-        <v>228425</v>
+        <v>239028</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>414</v>
+        <v>119</v>
       </c>
       <c r="D1155" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1155" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1155" s="1">
         <v>2425</v>
@@ -26760,19 +26766,19 @@
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1156" s="1">
-        <v>24742425</v>
+        <v>21552425</v>
       </c>
       <c r="B1156" s="1">
-        <v>228427</v>
+        <v>239034</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>415</v>
+        <v>120</v>
       </c>
       <c r="D1156" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1156" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1156" s="1">
         <v>2425</v>
@@ -26780,19 +26786,19 @@
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1157" s="1">
-        <v>24752425</v>
+        <v>21562425</v>
       </c>
       <c r="B1157" s="1">
-        <v>228428</v>
+        <v>239035</v>
       </c>
       <c r="C1157" s="1" t="s">
-        <v>416</v>
+        <v>121</v>
       </c>
       <c r="D1157" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1157" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1157" s="1">
         <v>2425</v>
@@ -26800,19 +26806,19 @@
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1158" s="1">
-        <v>24762425</v>
+        <v>21572425</v>
       </c>
       <c r="B1158" s="1">
-        <v>228429</v>
+        <v>239036</v>
       </c>
       <c r="C1158" s="1" t="s">
-        <v>417</v>
+        <v>122</v>
       </c>
       <c r="D1158" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1158" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1158" s="1">
         <v>2425</v>
@@ -26820,19 +26826,19 @@
     </row>
     <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1159" s="1">
-        <v>24772425</v>
+        <v>21582425</v>
       </c>
       <c r="B1159" s="1">
-        <v>228433</v>
+        <v>239037</v>
       </c>
       <c r="C1159" s="1" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
       <c r="D1159" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1159" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1159" s="1">
         <v>2425</v>
@@ -26840,19 +26846,19 @@
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1160" s="1">
-        <v>24782425</v>
+        <v>21592425</v>
       </c>
       <c r="B1160" s="1">
-        <v>228434</v>
+        <v>239032</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="D1160" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1160" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1160" s="1">
         <v>2425</v>
@@ -26860,19 +26866,19 @@
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1161" s="1">
-        <v>24792425</v>
+        <v>21602425</v>
       </c>
       <c r="B1161" s="1">
-        <v>228438</v>
+        <v>239039</v>
       </c>
       <c r="C1161" s="1" t="s">
-        <v>420</v>
+        <v>125</v>
       </c>
       <c r="D1161" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1161" s="1">
         <v>2425</v>
@@ -26880,19 +26886,19 @@
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1162" s="1">
-        <v>24802425</v>
+        <v>21612425</v>
       </c>
       <c r="B1162" s="1">
-        <v>228440</v>
+        <v>239040</v>
       </c>
       <c r="C1162" s="1" t="s">
-        <v>421</v>
+        <v>961</v>
       </c>
       <c r="D1162" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1162" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1162" s="1">
         <v>2425</v>
@@ -26900,19 +26906,19 @@
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1163" s="1">
-        <v>24812425</v>
+        <v>21622425</v>
       </c>
       <c r="B1163" s="1">
-        <v>228444</v>
+        <v>239041</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>422</v>
+        <v>126</v>
       </c>
       <c r="D1163" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1163" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1163" s="1">
         <v>2425</v>
@@ -26920,19 +26926,19 @@
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1164" s="1">
-        <v>24822425</v>
+        <v>21632425</v>
       </c>
       <c r="B1164" s="1">
-        <v>228445</v>
+        <v>239042</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>423</v>
+        <v>127</v>
       </c>
       <c r="D1164" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1164" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1164" s="1">
         <v>2425</v>
@@ -26940,19 +26946,19 @@
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1165" s="1">
-        <v>24832425</v>
+        <v>21642425</v>
       </c>
       <c r="B1165" s="1">
-        <v>228447</v>
+        <v>239043</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>424</v>
+        <v>962</v>
       </c>
       <c r="D1165" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1165" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1165" s="1">
         <v>2425</v>
@@ -26960,19 +26966,19 @@
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1166" s="1">
-        <v>24842425</v>
+        <v>21652425</v>
       </c>
       <c r="B1166" s="1">
-        <v>228448</v>
+        <v>239044</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>425</v>
+        <v>128</v>
       </c>
       <c r="D1166" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1166" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1166" s="1">
         <v>2425</v>
@@ -26980,19 +26986,19 @@
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1167" s="1">
-        <v>24852425</v>
+        <v>21662425</v>
       </c>
       <c r="B1167" s="1">
-        <v>228454</v>
+        <v>239038</v>
       </c>
       <c r="C1167" s="1" t="s">
-        <v>426</v>
+        <v>129</v>
       </c>
       <c r="D1167" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1167" s="1">
         <v>2425</v>
@@ -27000,19 +27006,19 @@
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1168" s="1">
-        <v>24862425</v>
+        <v>21672425</v>
       </c>
       <c r="B1168" s="1">
-        <v>228369</v>
+        <v>239045</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>427</v>
+        <v>130</v>
       </c>
       <c r="D1168" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1168" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1168" s="1">
         <v>2425</v>
@@ -27020,19 +27026,19 @@
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1169" s="1">
-        <v>24872425</v>
+        <v>21682425</v>
       </c>
       <c r="B1169" s="1">
-        <v>228370</v>
+        <v>239046</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>428</v>
+        <v>131</v>
       </c>
       <c r="D1169" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1169" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1169" s="1">
         <v>2425</v>
@@ -27040,19 +27046,19 @@
     </row>
     <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1170" s="1">
-        <v>24882425</v>
+        <v>21692425</v>
       </c>
       <c r="B1170" s="1">
-        <v>228371</v>
+        <v>239047</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="D1170" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1170" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1170" s="1">
         <v>2425</v>
@@ -27060,19 +27066,19 @@
     </row>
     <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1171" s="1">
-        <v>24892425</v>
+        <v>21702425</v>
       </c>
       <c r="B1171" s="1">
-        <v>228372</v>
+        <v>239048</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>430</v>
+        <v>133</v>
       </c>
       <c r="D1171" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1171" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1171" s="1">
         <v>2425</v>
@@ -27080,19 +27086,19 @@
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1172" s="1">
-        <v>24902425</v>
+        <v>21712425</v>
       </c>
       <c r="B1172" s="1">
-        <v>228373</v>
+        <v>239049</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>431</v>
+        <v>134</v>
       </c>
       <c r="D1172" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1172" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1172" s="1">
         <v>2425</v>
@@ -27100,19 +27106,19 @@
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1173" s="1">
-        <v>24912425</v>
+        <v>21722425</v>
       </c>
       <c r="B1173" s="1">
-        <v>228374</v>
+        <v>239050</v>
       </c>
       <c r="C1173" s="1" t="s">
-        <v>432</v>
+        <v>135</v>
       </c>
       <c r="D1173" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1173" s="1">
         <v>2425</v>
@@ -27120,19 +27126,19 @@
     </row>
     <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1174" s="1">
-        <v>24922425</v>
+        <v>21732425</v>
       </c>
       <c r="B1174" s="1">
-        <v>228376</v>
+        <v>239051</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>433</v>
+        <v>136</v>
       </c>
       <c r="D1174" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E1174" s="1" t="s">
-        <v>3</v>
+        <v>1042</v>
       </c>
       <c r="F1174" s="1">
         <v>2425</v>
@@ -27140,16 +27146,16 @@
     </row>
     <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1175" s="1">
-        <v>24932425</v>
+        <v>24472425</v>
       </c>
       <c r="B1175" s="1">
-        <v>228377</v>
+        <v>228375</v>
       </c>
       <c r="C1175" s="1" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="D1175" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1175" s="1" t="s">
         <v>3</v>
@@ -27160,16 +27166,16 @@
     </row>
     <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
-        <v>24942425</v>
+        <v>24482425</v>
       </c>
       <c r="B1176" s="1">
-        <v>228378</v>
+        <v>228380</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>435</v>
+        <v>979</v>
       </c>
       <c r="D1176" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1176" s="1" t="s">
         <v>3</v>
@@ -27180,16 +27186,16 @@
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1177" s="1">
-        <v>24952425</v>
+        <v>24492425</v>
       </c>
       <c r="B1177" s="1">
-        <v>228379</v>
+        <v>228381</v>
       </c>
       <c r="C1177" s="1" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="D1177" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1177" s="1" t="s">
         <v>3</v>
@@ -27200,16 +27206,16 @@
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1178" s="1">
-        <v>24962425</v>
+        <v>24502425</v>
       </c>
       <c r="B1178" s="1">
-        <v>228382</v>
+        <v>228384</v>
       </c>
       <c r="C1178" s="1" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="D1178" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1178" s="1" t="s">
         <v>3</v>
@@ -27220,16 +27226,16 @@
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1179" s="1">
-        <v>24972425</v>
+        <v>24512425</v>
       </c>
       <c r="B1179" s="1">
-        <v>228390</v>
+        <v>228386</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="D1179" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1179" s="1" t="s">
         <v>3</v>
@@ -27240,16 +27246,16 @@
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1180" s="1">
-        <v>24982425</v>
+        <v>24522425</v>
       </c>
       <c r="B1180" s="1">
-        <v>228391</v>
+        <v>228387</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>439</v>
+        <v>980</v>
       </c>
       <c r="D1180" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1180" s="1" t="s">
         <v>3</v>
@@ -27260,16 +27266,16 @@
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1181" s="1">
-        <v>24992425</v>
+        <v>24532425</v>
       </c>
       <c r="B1181" s="1">
-        <v>228394</v>
+        <v>228388</v>
       </c>
       <c r="C1181" s="1" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="D1181" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1181" s="1" t="s">
         <v>3</v>
@@ -27280,16 +27286,16 @@
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1182" s="1">
-        <v>25002425</v>
+        <v>24542425</v>
       </c>
       <c r="B1182" s="1">
-        <v>228396</v>
+        <v>228389</v>
       </c>
       <c r="C1182" s="1" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="D1182" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1182" s="1" t="s">
         <v>3</v>
@@ -27300,16 +27306,16 @@
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1183" s="1">
-        <v>25012425</v>
+        <v>24552425</v>
       </c>
       <c r="B1183" s="1">
-        <v>228398</v>
+        <v>228392</v>
       </c>
       <c r="C1183" s="1" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="D1183" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1183" s="1" t="s">
         <v>3</v>
@@ -27320,16 +27326,16 @@
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1184" s="1">
-        <v>25022425</v>
+        <v>24562425</v>
       </c>
       <c r="B1184" s="1">
-        <v>228399</v>
+        <v>228393</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="D1184" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1184" s="1" t="s">
         <v>3</v>
@@ -27340,16 +27346,16 @@
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1185" s="1">
-        <v>25032425</v>
+        <v>24572425</v>
       </c>
       <c r="B1185" s="1">
-        <v>228401</v>
+        <v>228395</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="D1185" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1185" s="1" t="s">
         <v>3</v>
@@ -27360,16 +27366,16 @@
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1186" s="1">
-        <v>25042425</v>
+        <v>24582425</v>
       </c>
       <c r="B1186" s="1">
-        <v>228404</v>
+        <v>228397</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="D1186" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1186" s="1" t="s">
         <v>3</v>
@@ -27380,16 +27386,16 @@
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1187" s="1">
-        <v>25052425</v>
+        <v>24592425</v>
       </c>
       <c r="B1187" s="1">
-        <v>228405</v>
+        <v>228402</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
       <c r="D1187" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1187" s="1" t="s">
         <v>3</v>
@@ -27400,16 +27406,16 @@
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1188" s="1">
-        <v>25062425</v>
+        <v>24602425</v>
       </c>
       <c r="B1188" s="1">
-        <v>228408</v>
+        <v>228403</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>447</v>
+        <v>981</v>
       </c>
       <c r="D1188" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1188" s="1" t="s">
         <v>3</v>
@@ -27420,16 +27426,16 @@
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1189" s="1">
-        <v>25072425</v>
+        <v>24612425</v>
       </c>
       <c r="B1189" s="1">
-        <v>228409</v>
+        <v>228406</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="D1189" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1189" s="1" t="s">
         <v>3</v>
@@ -27440,16 +27446,16 @@
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1190" s="1">
-        <v>25082425</v>
+        <v>24622425</v>
       </c>
       <c r="B1190" s="1">
-        <v>228419</v>
+        <v>228407</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D1190" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1190" s="1" t="s">
         <v>3</v>
@@ -27460,16 +27466,16 @@
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1191" s="1">
-        <v>25092425</v>
+        <v>24632425</v>
       </c>
       <c r="B1191" s="1">
-        <v>228414</v>
+        <v>228410</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="D1191" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1191" s="1" t="s">
         <v>3</v>
@@ -27480,16 +27486,16 @@
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1192" s="1">
-        <v>25102425</v>
+        <v>24642425</v>
       </c>
       <c r="B1192" s="1">
-        <v>228416</v>
+        <v>228411</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="D1192" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1192" s="1" t="s">
         <v>3</v>
@@ -27500,16 +27506,16 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1193" s="1">
-        <v>25112425</v>
+        <v>24652425</v>
       </c>
       <c r="B1193" s="1">
-        <v>228418</v>
+        <v>228412</v>
       </c>
       <c r="C1193" s="1" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="D1193" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1193" s="1" t="s">
         <v>3</v>
@@ -27520,16 +27526,16 @@
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1194" s="1">
-        <v>25122425</v>
+        <v>24662425</v>
       </c>
       <c r="B1194" s="1">
-        <v>228421</v>
+        <v>228413</v>
       </c>
       <c r="C1194" s="1" t="s">
-        <v>452</v>
+        <v>983</v>
       </c>
       <c r="D1194" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1194" s="1" t="s">
         <v>3</v>
@@ -27540,16 +27546,16 @@
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1195" s="1">
-        <v>25132425</v>
+        <v>24672425</v>
       </c>
       <c r="B1195" s="1">
-        <v>228426</v>
+        <v>228415</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="D1195" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1195" s="1" t="s">
         <v>3</v>
@@ -27560,16 +27566,16 @@
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1196" s="1">
-        <v>25142425</v>
+        <v>24682425</v>
       </c>
       <c r="B1196" s="1">
-        <v>228430</v>
+        <v>228417</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="D1196" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1196" s="1" t="s">
         <v>3</v>
@@ -27580,16 +27586,16 @@
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1197" s="1">
-        <v>25152425</v>
+        <v>24692425</v>
       </c>
       <c r="B1197" s="1">
-        <v>228432</v>
+        <v>228420</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="D1197" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1197" s="1" t="s">
         <v>3</v>
@@ -27600,16 +27606,16 @@
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1198" s="1">
-        <v>25162425</v>
+        <v>24702425</v>
       </c>
       <c r="B1198" s="1">
-        <v>228435</v>
+        <v>228422</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="D1198" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1198" s="1" t="s">
         <v>3</v>
@@ -27620,16 +27626,16 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1199" s="1">
-        <v>25172425</v>
+        <v>24712425</v>
       </c>
       <c r="B1199" s="1">
-        <v>228436</v>
+        <v>228423</v>
       </c>
       <c r="C1199" s="1" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="D1199" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1199" s="1" t="s">
         <v>3</v>
@@ -27640,16 +27646,16 @@
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1200" s="1">
-        <v>25182425</v>
+        <v>24722425</v>
       </c>
       <c r="B1200" s="1">
-        <v>228437</v>
+        <v>228424</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="D1200" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1200" s="1" t="s">
         <v>3</v>
@@ -27660,16 +27666,16 @@
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1201" s="1">
-        <v>25192425</v>
+        <v>24732425</v>
       </c>
       <c r="B1201" s="1">
-        <v>228439</v>
+        <v>228425</v>
       </c>
       <c r="C1201" s="1" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="D1201" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1201" s="1" t="s">
         <v>3</v>
@@ -27680,16 +27686,16 @@
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
-        <v>25202425</v>
+        <v>24742425</v>
       </c>
       <c r="B1202" s="1">
-        <v>228441</v>
+        <v>228427</v>
       </c>
       <c r="C1202" s="1" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="D1202" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1202" s="1" t="s">
         <v>3</v>
@@ -27700,16 +27706,16 @@
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1203" s="1">
-        <v>25212425</v>
+        <v>24752425</v>
       </c>
       <c r="B1203" s="1">
-        <v>228442</v>
+        <v>228428</v>
       </c>
       <c r="C1203" s="1" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="D1203" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1203" s="1" t="s">
         <v>3</v>
@@ -27720,16 +27726,16 @@
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1204" s="1">
-        <v>25222425</v>
+        <v>24762425</v>
       </c>
       <c r="B1204" s="1">
-        <v>228443</v>
+        <v>228429</v>
       </c>
       <c r="C1204" s="1" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="D1204" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1204" s="1" t="s">
         <v>3</v>
@@ -27740,16 +27746,16 @@
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
-        <v>25232425</v>
+        <v>24772425</v>
       </c>
       <c r="B1205" s="1">
-        <v>228446</v>
+        <v>228433</v>
       </c>
       <c r="C1205" s="1" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="D1205" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1205" s="1" t="s">
         <v>3</v>
@@ -27760,16 +27766,16 @@
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1206" s="1">
-        <v>25242425</v>
+        <v>24782425</v>
       </c>
       <c r="B1206" s="1">
-        <v>228449</v>
+        <v>228434</v>
       </c>
       <c r="C1206" s="1" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="D1206" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1206" s="1" t="s">
         <v>3</v>
@@ -27780,16 +27786,16 @@
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1207" s="1">
-        <v>25252425</v>
+        <v>24792425</v>
       </c>
       <c r="B1207" s="1">
-        <v>228450</v>
+        <v>228438</v>
       </c>
       <c r="C1207" s="1" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="D1207" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1207" s="1" t="s">
         <v>3</v>
@@ -27800,16 +27806,16 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
-        <v>25262425</v>
+        <v>24802425</v>
       </c>
       <c r="B1208" s="1">
-        <v>228451</v>
+        <v>228440</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
       <c r="D1208" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1208" s="1" t="s">
         <v>3</v>
@@ -27820,16 +27826,16 @@
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1209" s="1">
-        <v>25272425</v>
+        <v>24812425</v>
       </c>
       <c r="B1209" s="1">
-        <v>228452</v>
+        <v>228444</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="D1209" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E1209" s="1" t="s">
         <v>3</v>
@@ -27840,21 +27846,1821 @@
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
+        <v>24822425</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>228445</v>
+      </c>
+      <c r="C1210" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211" s="1">
+        <v>24832425</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>228447</v>
+      </c>
+      <c r="C1211" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212" s="1">
+        <v>24842425</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>228448</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213" s="1">
+        <v>24852425</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>228454</v>
+      </c>
+      <c r="C1213" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E1213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214" s="1">
+        <v>24862425</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>228369</v>
+      </c>
+      <c r="C1214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1215" s="1">
+        <v>24872425</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>228370</v>
+      </c>
+      <c r="C1215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1216" s="1">
+        <v>24882425</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>228371</v>
+      </c>
+      <c r="C1216" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1">
+        <v>24892425</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>228372</v>
+      </c>
+      <c r="C1217" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1218" s="1">
+        <v>24902425</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>228373</v>
+      </c>
+      <c r="C1218" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1219" s="1">
+        <v>24912425</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>228374</v>
+      </c>
+      <c r="C1219" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1220" s="1">
+        <v>24922425</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>228376</v>
+      </c>
+      <c r="C1220" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1221" s="1">
+        <v>24932425</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>228377</v>
+      </c>
+      <c r="C1221" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1222" s="1">
+        <v>24942425</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>228378</v>
+      </c>
+      <c r="C1222" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1223" s="1">
+        <v>24952425</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>228379</v>
+      </c>
+      <c r="C1223" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1224" s="1">
+        <v>24962425</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>228382</v>
+      </c>
+      <c r="C1224" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1225" s="1">
+        <v>24972425</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>228390</v>
+      </c>
+      <c r="C1225" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1226" s="1">
+        <v>24982425</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>228391</v>
+      </c>
+      <c r="C1226" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1227" s="1">
+        <v>24992425</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>228394</v>
+      </c>
+      <c r="C1227" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1228" s="1">
+        <v>25002425</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>228396</v>
+      </c>
+      <c r="C1228" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1229" s="1">
+        <v>25012425</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>228398</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1230" s="1">
+        <v>25022425</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>228399</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1231" s="1">
+        <v>25032425</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>228401</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1232" s="1">
+        <v>25042425</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>228404</v>
+      </c>
+      <c r="C1232" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1233" s="1">
+        <v>25052425</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>228405</v>
+      </c>
+      <c r="C1233" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1234" s="1">
+        <v>25062425</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>228408</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1235" s="1">
+        <v>25072425</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>228409</v>
+      </c>
+      <c r="C1235" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1236" s="1">
+        <v>25082425</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>228419</v>
+      </c>
+      <c r="C1236" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1237" s="1">
+        <v>25092425</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>228414</v>
+      </c>
+      <c r="C1237" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1">
+        <v>25102425</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>228416</v>
+      </c>
+      <c r="C1238" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1">
+        <v>25112425</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>228418</v>
+      </c>
+      <c r="C1239" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1">
+        <v>25122425</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>228421</v>
+      </c>
+      <c r="C1240" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1">
+        <v>25132425</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>228426</v>
+      </c>
+      <c r="C1241" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1">
+        <v>25142425</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>228430</v>
+      </c>
+      <c r="C1242" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1242" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1">
+        <v>25152425</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>228432</v>
+      </c>
+      <c r="C1243" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1243" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1">
+        <v>25162425</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>228435</v>
+      </c>
+      <c r="C1244" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1">
+        <v>25172425</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>228436</v>
+      </c>
+      <c r="C1245" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1245" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1">
+        <v>25182425</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>228437</v>
+      </c>
+      <c r="C1246" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1246" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1">
+        <v>25192425</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>228439</v>
+      </c>
+      <c r="C1247" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1247" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1">
+        <v>25202425</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>228441</v>
+      </c>
+      <c r="C1248" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1">
+        <v>25212425</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>228442</v>
+      </c>
+      <c r="C1249" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1">
+        <v>25222425</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>228443</v>
+      </c>
+      <c r="C1250" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1250" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1">
+        <v>25232425</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>228446</v>
+      </c>
+      <c r="C1251" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1251" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1">
+        <v>25242425</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>228449</v>
+      </c>
+      <c r="C1252" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1252" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1">
+        <v>25252425</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>228450</v>
+      </c>
+      <c r="C1253" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1253" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1">
+        <v>25262425</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>228451</v>
+      </c>
+      <c r="C1254" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1">
+        <v>25272425</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>228452</v>
+      </c>
+      <c r="C1255" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1256" s="1">
         <v>25282425</v>
       </c>
-      <c r="B1210" s="1">
+      <c r="B1256" s="1">
         <v>228453</v>
       </c>
-      <c r="C1210" s="1" t="s">
+      <c r="C1256" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D1210" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E1210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1210" s="1">
+      <c r="D1256" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E1256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1256" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1257" s="1">
+        <v>25292425</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>228588</v>
+      </c>
+      <c r="C1257" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1257" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1258" s="1">
+        <v>25302425</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>228589</v>
+      </c>
+      <c r="C1258" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1258" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1259" s="1">
+        <v>25312425</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>228590</v>
+      </c>
+      <c r="C1259" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1259" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1260" s="1">
+        <v>25322425</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>228591</v>
+      </c>
+      <c r="C1260" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1260" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1260" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1261" s="1">
+        <v>25332425</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>228592</v>
+      </c>
+      <c r="C1261" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1261" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1261" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1262" s="1">
+        <v>25342425</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>228593</v>
+      </c>
+      <c r="C1262" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1262" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1263" s="1">
+        <v>25352425</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>228594</v>
+      </c>
+      <c r="C1263" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1263" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1264" s="1">
+        <v>25362425</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>228595</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1264" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1265" s="1">
+        <v>25372425</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>228596</v>
+      </c>
+      <c r="C1265" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1265" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1266" s="1">
+        <v>25382425</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>228597</v>
+      </c>
+      <c r="C1266" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1266" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1266" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1267" s="1">
+        <v>25392425</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>228599</v>
+      </c>
+      <c r="C1267" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1267" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1268" s="1">
+        <v>25402425</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>228600</v>
+      </c>
+      <c r="C1268" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1268" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1268" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1269" s="1">
+        <v>25412425</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>228601</v>
+      </c>
+      <c r="C1269" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1269" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1269" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1270" s="1">
+        <v>25422425</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>228602</v>
+      </c>
+      <c r="C1270" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1270" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1270" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1271" s="1">
+        <v>25432425</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>228603</v>
+      </c>
+      <c r="C1271" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1271" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1271" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1272" s="1">
+        <v>25442425</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>228605</v>
+      </c>
+      <c r="C1272" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1272" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1272" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1273" s="1">
+        <v>25452425</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>228606</v>
+      </c>
+      <c r="C1273" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1273" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1273" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1274" s="1">
+        <v>25462425</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>228607</v>
+      </c>
+      <c r="C1274" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1274" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1274" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1275" s="1">
+        <v>25472425</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>228637</v>
+      </c>
+      <c r="C1275" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1275" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1275" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1276" s="1">
+        <v>25482425</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>228608</v>
+      </c>
+      <c r="C1276" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1276" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1276" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1277" s="1">
+        <v>25492425</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>228609</v>
+      </c>
+      <c r="C1277" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1277" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1277" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1278" s="1">
+        <v>25502425</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>228610</v>
+      </c>
+      <c r="C1278" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D1278" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1278" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1279" s="1">
+        <v>25512425</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>228611</v>
+      </c>
+      <c r="C1279" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1279" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1279" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1280" s="1">
+        <v>25522425</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>228612</v>
+      </c>
+      <c r="C1280" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1280" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1280" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1281" s="1">
+        <v>25532425</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>228613</v>
+      </c>
+      <c r="C1281" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1281" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1281" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1282" s="1">
+        <v>25542425</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>228614</v>
+      </c>
+      <c r="C1282" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1282" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1282" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1283" s="1">
+        <v>25552425</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>228615</v>
+      </c>
+      <c r="C1283" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1283" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1283" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1284" s="1">
+        <v>25562425</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>228616</v>
+      </c>
+      <c r="C1284" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1284" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1284" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1285" s="1">
+        <v>25572425</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>228617</v>
+      </c>
+      <c r="C1285" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1285" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1285" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1286" s="1">
+        <v>25582425</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>228618</v>
+      </c>
+      <c r="C1286" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1286" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1286" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1287" s="1">
+        <v>25592425</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>228619</v>
+      </c>
+      <c r="C1287" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1287" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1287" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1288" s="1">
+        <v>25602425</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>228620</v>
+      </c>
+      <c r="C1288" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1288" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1288" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1289" s="1">
+        <v>25612425</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>228621</v>
+      </c>
+      <c r="C1289" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1289" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1290" s="1">
+        <v>25622425</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>228622</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1290" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1291" s="1">
+        <v>25632425</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>228623</v>
+      </c>
+      <c r="C1291" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1291" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1291" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1292" s="1">
+        <v>25642425</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>228624</v>
+      </c>
+      <c r="C1292" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1292" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1292" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1293" s="1">
+        <v>25652425</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>228625</v>
+      </c>
+      <c r="C1293" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1293" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1294" s="1">
+        <v>25662425</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>228626</v>
+      </c>
+      <c r="C1294" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1294" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1294" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1295" s="1">
+        <v>25672425</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>228627</v>
+      </c>
+      <c r="C1295" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1295" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1295" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1296" s="1">
+        <v>25682425</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>228628</v>
+      </c>
+      <c r="C1296" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1296" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1296" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1297" s="1">
+        <v>25692425</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>228629</v>
+      </c>
+      <c r="C1297" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1297" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1298" s="1">
+        <v>25702425</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>228630</v>
+      </c>
+      <c r="C1298" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1298" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1299" s="1">
+        <v>25712425</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>228631</v>
+      </c>
+      <c r="C1299" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1299" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1300" s="1">
+        <v>25722425</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>228632</v>
+      </c>
+      <c r="C1300" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D1300" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E1300" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F1300" s="1">
         <v>2425</v>
       </c>
     </row>

--- a/temp_doc/DATA SISWA FIX.xlsx
+++ b/temp_doc/DATA SISWA FIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143E13EF-C835-C349-85FA-DA0F22BB8AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E849BBE-FC7B-B84E-BF8F-1E86E17C6F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{A22911EF-5D24-2343-8839-FFE0F546D574}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3676,7 +3676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEC10D9-F9F8-FD44-9CFE-62A6A803E404}">
   <dimension ref="A1:F1653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1022" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A1586" workbookViewId="0">
       <selection activeCell="A1039" sqref="A1039:F1653"/>
     </sheetView>
   </sheetViews>
